--- a/marketing/522713-XLS-ENG.xlsx
+++ b/marketing/522713-XLS-ENG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elmsc\Documents\Code\writing\mba\marketing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elmsc\Documents\Code\datasci\marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346A9079-2CCD-4E85-ABE4-09506C17E3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402B5C14-503C-4BA2-AFBA-ECCAC5A7187C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" activeTab="1" xr2:uid="{CFEF52B6-519A-EA43-B3D9-6A9DD20F7931}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" activeTab="2" xr2:uid="{CFEF52B6-519A-EA43-B3D9-6A9DD20F7931}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="3" r:id="rId1"/>
@@ -174,7 +174,7 @@
     <numFmt numFmtId="165" formatCode="_([$€-2]\ * #,##0_);_([$€-2]\ * \(#,##0\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -314,9 +314,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -338,9 +335,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,10 +344,16 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -793,9 +793,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -803,7 +803,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -811,26 +811,26 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:9" ht="107.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -845,241 +845,241 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCA7F90-9802-6249-9B70-B546D7596E32}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="31.8125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.0625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.3125" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="19.8125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.0625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.8125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.8125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D1" s="22" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="D1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="23">
         <v>6296000000</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="9">
+      <c r="C3" s="23"/>
+      <c r="D3" s="8">
         <f>B3</f>
         <v>6296000000</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f>B3</f>
         <v>6296000000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>6558000</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27">
+      <c r="C5" s="24"/>
+      <c r="D5" s="25">
         <f>B5</f>
         <v>6558000</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="25">
         <f>B5</f>
         <v>6558000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="24">
         <v>771000</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <v>574000</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>0.114</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29">
+      <c r="C9" s="26"/>
+      <c r="D9" s="27">
         <v>0.13400000000000001</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="27">
         <v>9.4E-2</v>
       </c>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <f>1-B9</f>
         <v>0.88600000000000001</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26">
         <f t="shared" ref="D10:E10" si="0">1-D9</f>
         <v>0.86599999999999999</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <f t="shared" si="0"/>
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>0.3</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <f>B11</f>
         <v>0.3</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <f>B11</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>0.1</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12">
         <v>0.1</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <f>B3/B5</f>
         <v>960.04879536444037</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8">
         <f t="shared" ref="D15:E15" si="1">D3/D5</f>
         <v>960.04879536444037</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <f t="shared" si="1"/>
         <v>960.04879536444037</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <f>B15*B11</f>
         <v>288.01463860933211</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
         <f>D15*D11</f>
         <v>288.01463860933211</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <f>E15*E11</f>
         <v>288.01463860933211</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="29">
         <f>B16/(1+B13-B10)</f>
         <v>1345.8627972398692</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="31">
+      <c r="C17" s="19"/>
+      <c r="D17" s="29">
         <f>D16/(1+D13-D10)</f>
         <v>1230.8317889287691</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="29">
         <f>E16/(1+E13-E10)</f>
         <v>1484.611539223361</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
@@ -1089,270 +1089,270 @@
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="23">
         <v>6296000000</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23">
         <v>4209000000</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="23">
         <v>1008000000</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="23">
         <v>97000000</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="23">
         <v>11280000000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="24">
         <v>6558000</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24">
         <v>4623000</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="24">
         <v>724000</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="24">
         <v>89000</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="24">
         <v>12362000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="24">
         <v>771000</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26">
+      <c r="C26" s="24"/>
+      <c r="D26" s="24">
         <v>353000</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="24">
         <v>236000</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="24">
         <v>4000</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="24">
         <v>1186000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="24">
         <v>574000</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24">
         <v>235000</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="24">
         <v>20000</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="24">
         <v>5000</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="24">
         <v>1790000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="26">
         <v>0.114</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="33">
+      <c r="C29" s="26"/>
+      <c r="D29" s="31">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="31">
         <v>0.311</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="31">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="26">
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="26">
         <f>1-B29</f>
         <v>0.88600000000000001</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28">
+      <c r="C30" s="26"/>
+      <c r="D30" s="26">
         <f t="shared" ref="D30:F30" si="2">1-D29</f>
         <v>0.92600000000000005</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="26">
         <f t="shared" si="2"/>
         <v>0.68900000000000006</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="26">
         <f t="shared" si="2"/>
         <v>0.95399999999999996</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="26">
         <f>1-H29</f>
         <v>0.89900000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="12">
         <v>0.3</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <f>B31</f>
         <v>0.3</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <f>B31</f>
         <v>0.3</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <f>B31</f>
         <v>0.3</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="12">
         <f>B31</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="12">
         <v>0.1</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12">
         <v>0.1</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <v>0.1</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <v>0.1</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="12">
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <f>B23/B25</f>
         <v>960.04879536444037</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8">
         <f t="shared" ref="D35:F35" si="3">D23/D25</f>
         <v>910.44776119402979</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <f t="shared" si="3"/>
         <v>1392.2651933701657</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <f t="shared" si="3"/>
         <v>1089.8876404494381</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="8">
         <f>H23/H25</f>
         <v>912.473709755703</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <f>B35*B31</f>
         <v>288.01463860933211</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8">
         <f>D35*D31</f>
         <v>273.1343283582089</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <f>E35*E31</f>
         <v>417.67955801104966</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="8">
         <f>F35*F31</f>
         <v>326.96629213483141</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="8">
         <f>H35*H31</f>
         <v>273.74211292671089</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="29">
         <f>B36/(1+B33-B30)</f>
         <v>1345.8627972398692</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="31">
+      <c r="C37" s="19"/>
+      <c r="D37" s="29">
         <f>D36/(1+D33-D30)</f>
         <v>1569.7375193000507</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="29">
         <f>E36/(1+E33-E30)</f>
         <v>1016.2519659636245</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="29">
         <f>F36/(1+F33-F30)</f>
         <v>2239.4951516084325</v>
       </c>
-      <c r="H37" s="31">
+      <c r="H37" s="29">
         <f>H36/(1+H33-H30)</f>
         <v>1361.9010593368696</v>
       </c>
@@ -1369,223 +1369,223 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE2D69C-D8FD-C944-915F-45EF1D5BADD6}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.9140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.4140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.1640625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="21.1875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.9375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.6875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.4375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.1875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.8125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>1345</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>1230</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <f>C2</f>
         <v>1230</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <f>C2</f>
         <v>1230</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1345</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <f>$B3</f>
         <v>1345</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <f>$B3</f>
         <v>1345</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>1484</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>0.1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <f>$B4</f>
         <v>0.1</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <f t="shared" ref="D4:E4" si="0">$B4</f>
         <v>0.1</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>6558</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <f>$B6</f>
         <v>6558</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <f t="shared" ref="D6:E6" si="1">$B6</f>
         <v>6558</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <f t="shared" si="1"/>
         <v>6558</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>600</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <f>B7</f>
         <v>600</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>700</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <f>D7</f>
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <f>B6*B2</f>
         <v>8820510</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <f>C6*C2</f>
         <v>8066340</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <f>D6*D2</f>
         <v>8066340</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f>E6*E2</f>
         <v>8066340</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <f>SUM(B16:B40)</f>
         <v>4958665.6543036764</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <f>SUM(C16:C40)</f>
         <v>4958665.6543036764</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <f>SUM(D16:D40)</f>
         <v>5785109.9300209573</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <f>SUM(E16:E40)</f>
         <v>6382976.3094060216</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <f>B10+B11</f>
         <v>13779175.654303677</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <f>C10+C11</f>
         <v>13025005.654303677</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <f>D10+D11</f>
         <v>13851449.930020958</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <f>E10+E11</f>
         <v>14449316.309406022</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18">
         <f>C12/$B12-1</f>
         <v>-5.4732592059267948E-2</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <f t="shared" ref="D13:E13" si="2">D12/$B12-1</f>
         <v>5.2451813904199618E-3</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <f t="shared" si="2"/>
         <v>4.8634306718706943E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1599,293 +1599,293 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <f>B$7*B$3/(1+B$4)^$A16</f>
         <v>733636.36363636353</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="19">
         <f>C$7*C$3/(1+C$4)^$A16</f>
         <v>733636.36363636353</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <f>D$7*D$3/(1+D$4)^$A16</f>
         <v>855909.09090909082</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <f>E$7*E$3/(1+E$4)^$A16</f>
         <v>944363.63636363624</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>2</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <f t="shared" ref="B17:E25" si="3">B$7*B$3/(1+B$4)^$A17</f>
         <v>666942.14876033051</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="19">
         <f t="shared" si="3"/>
         <v>666942.14876033051</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="19">
         <f t="shared" si="3"/>
         <v>778099.17355371884</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <f t="shared" si="3"/>
         <v>858512.39669421478</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>3</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="19">
         <f t="shared" si="3"/>
         <v>606311.04432757304</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="19">
         <f t="shared" si="3"/>
         <v>606311.04432757304</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="19">
         <f t="shared" si="3"/>
         <v>707362.88504883519</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="19">
         <f t="shared" si="3"/>
         <v>780465.8151765588</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>4</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="19">
         <f t="shared" si="3"/>
         <v>551191.85847961192</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="19">
         <f t="shared" si="3"/>
         <v>551191.85847961192</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="19">
         <f t="shared" si="3"/>
         <v>643057.16822621389</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <f t="shared" si="3"/>
         <v>709514.37743323529</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>5</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <f t="shared" si="3"/>
         <v>501083.50770873803</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <f t="shared" si="3"/>
         <v>501083.50770873803</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="19">
         <f t="shared" si="3"/>
         <v>584597.42566019436</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="19">
         <f t="shared" si="3"/>
         <v>645013.07039385021</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>6</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="19">
         <f t="shared" si="3"/>
         <v>455530.46155339817</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="19">
         <f t="shared" si="3"/>
         <v>455530.46155339817</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="19">
         <f t="shared" si="3"/>
         <v>531452.20514563122</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="19">
         <f t="shared" si="3"/>
         <v>586375.51853986375</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>7</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <f t="shared" si="3"/>
         <v>414118.60141218011</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="19">
         <f t="shared" si="3"/>
         <v>414118.60141218011</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="19">
         <f t="shared" si="3"/>
         <v>483138.36831421009</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="19">
         <f t="shared" si="3"/>
         <v>533068.65321805782</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>8</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <f t="shared" si="3"/>
         <v>376471.45582925464</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <f t="shared" si="3"/>
         <v>376471.45582925464</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <f t="shared" si="3"/>
         <v>439216.69846746378</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="19">
         <f t="shared" si="3"/>
         <v>484607.86656187079</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>9</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <f t="shared" si="3"/>
         <v>342246.77802659513</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <f t="shared" si="3"/>
         <v>342246.77802659513</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <f t="shared" si="3"/>
         <v>399287.90769769432</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="19">
         <f t="shared" si="3"/>
         <v>440552.60596533708</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>10</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <f t="shared" si="3"/>
         <v>311133.43456963188</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <f t="shared" si="3"/>
         <v>311133.43456963188</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <f t="shared" si="3"/>
         <v>362989.00699790387</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="19">
         <f t="shared" si="3"/>
         <v>400502.36905939732</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+    <row r="26" spans="1:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
